--- a/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_advertising.xlsx
+++ b/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_advertising.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0487</v>
+        <v>-0.0147</v>
       </c>
       <c r="G2">
-        <v>-0.03035874439461883</v>
+        <v>-0.3469026548672566</v>
       </c>
       <c r="H2">
-        <v>-0.03035874439461883</v>
+        <v>-0.3469026548672566</v>
       </c>
       <c r="I2">
-        <v>-0.2434977578475336</v>
+        <v>-0.5530973451327433</v>
       </c>
       <c r="J2">
-        <v>-0.2434977578475336</v>
+        <v>-0.5530973451327433</v>
       </c>
       <c r="K2">
-        <v>-0.87</v>
+        <v>-12.9</v>
       </c>
       <c r="L2">
-        <v>-0.03901345291479821</v>
+        <v>-0.5707964601769911</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.21</v>
+        <v>29.7</v>
       </c>
       <c r="V2">
-        <v>0.07276536312849162</v>
+        <v>0.1229304635761589</v>
       </c>
       <c r="W2">
-        <v>-0.0550632911392405</v>
+        <v>-0.8543046357615894</v>
       </c>
       <c r="X2">
-        <v>0.08528143459662753</v>
+        <v>0.06519206562437797</v>
       </c>
       <c r="Y2">
-        <v>-0.140344725735868</v>
+        <v>-0.9194967013859674</v>
       </c>
       <c r="Z2">
-        <v>1.59513590844063</v>
+        <v>0.8971814211988886</v>
       </c>
       <c r="AA2">
-        <v>-0.3884120171673819</v>
+        <v>-0.4962286621675269</v>
       </c>
       <c r="AB2">
-        <v>0.07506711087590803</v>
+        <v>0.06299505090523511</v>
       </c>
       <c r="AC2">
-        <v>-0.4634791280432899</v>
+        <v>-0.559223713072762</v>
       </c>
       <c r="AD2">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="AG2">
-        <v>10.09</v>
+        <v>-15.5</v>
       </c>
       <c r="AH2">
-        <v>0.1760644418872267</v>
+        <v>0.05551211884284597</v>
       </c>
       <c r="AI2">
-        <v>0.5134228187919463</v>
+        <v>0.3264367816091954</v>
       </c>
       <c r="AJ2">
-        <v>0.1235157301995348</v>
+        <v>-0.06855373728438745</v>
       </c>
       <c r="AK2">
-        <v>0.4103294021960147</v>
+        <v>-1.123188405797101</v>
       </c>
       <c r="AL2">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="AM2">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="AN2">
-        <v>-4.78125</v>
+        <v>-1.339622641509434</v>
       </c>
       <c r="AO2">
-        <v>-5.221153846153846</v>
+        <v>-9.469696969696969</v>
       </c>
       <c r="AP2">
-        <v>-3.153125</v>
+        <v>1.462264150943396</v>
       </c>
       <c r="AQ2">
-        <v>-5.221153846153846</v>
+        <v>-9.469696969696969</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0487</v>
+        <v>-0.0147</v>
       </c>
       <c r="G3">
-        <v>-0.03035874439461883</v>
+        <v>-0.3469026548672566</v>
       </c>
       <c r="H3">
-        <v>-0.03035874439461883</v>
+        <v>-0.3469026548672566</v>
       </c>
       <c r="I3">
-        <v>-0.2434977578475336</v>
+        <v>-0.5530973451327433</v>
       </c>
       <c r="J3">
-        <v>-0.2434977578475336</v>
+        <v>-0.5530973451327433</v>
       </c>
       <c r="K3">
-        <v>-0.87</v>
+        <v>-12.9</v>
       </c>
       <c r="L3">
-        <v>-0.03901345291479821</v>
+        <v>-0.5707964601769911</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>5.21</v>
+        <v>29.7</v>
       </c>
       <c r="V3">
-        <v>0.07276536312849162</v>
+        <v>0.1229304635761589</v>
       </c>
       <c r="W3">
-        <v>-0.0550632911392405</v>
+        <v>-0.8543046357615894</v>
       </c>
       <c r="X3">
-        <v>0.08528143459662753</v>
+        <v>0.06519206562437797</v>
       </c>
       <c r="Y3">
-        <v>-0.140344725735868</v>
+        <v>-0.9194967013859674</v>
       </c>
       <c r="Z3">
-        <v>1.59513590844063</v>
+        <v>0.8971814211988886</v>
       </c>
       <c r="AA3">
-        <v>-0.3884120171673819</v>
+        <v>-0.4962286621675269</v>
       </c>
       <c r="AB3">
-        <v>0.07506711087590803</v>
+        <v>0.06299505090523511</v>
       </c>
       <c r="AC3">
-        <v>-0.4634791280432899</v>
+        <v>-0.559223713072762</v>
       </c>
       <c r="AD3">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="AG3">
-        <v>10.09</v>
+        <v>-15.5</v>
       </c>
       <c r="AH3">
-        <v>0.1760644418872267</v>
+        <v>0.05551211884284597</v>
       </c>
       <c r="AI3">
-        <v>0.5134228187919463</v>
+        <v>0.3264367816091954</v>
       </c>
       <c r="AJ3">
-        <v>0.1235157301995348</v>
+        <v>-0.06855373728438745</v>
       </c>
       <c r="AK3">
-        <v>0.4103294021960147</v>
+        <v>-1.123188405797101</v>
       </c>
       <c r="AL3">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="AM3">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="AN3">
-        <v>-4.78125</v>
+        <v>-1.339622641509434</v>
       </c>
       <c r="AO3">
-        <v>-5.221153846153846</v>
+        <v>-9.469696969696969</v>
       </c>
       <c r="AP3">
-        <v>-3.153125</v>
+        <v>1.462264150943396</v>
       </c>
       <c r="AQ3">
-        <v>-5.221153846153846</v>
+        <v>-9.469696969696969</v>
       </c>
     </row>
   </sheetData>
